--- a/outputs/refinery/diff_ref_prod_flow_llf.xlsx
+++ b/outputs/refinery/diff_ref_prod_flow_llf.xlsx
@@ -932,7 +932,7 @@
         <v>1367.5</v>
       </c>
       <c r="F22">
-        <v>1367.2</v>
+        <v>1366.9</v>
       </c>
     </row>
     <row r="23">
